--- a/data/output/FV2504_FV2410/ORDERS/17123.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17123.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="210">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="210">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -777,6 +777,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U81" totalsRowShown="0">
+  <autoFilter ref="A1:U81"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1066,7 +1096,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4762,5 +4795,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17123.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17123.xlsx
@@ -1001,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1024,6 +1024,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1032,6 +1035,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1474,7 +1480,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1838,7 +1844,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1986,7 +1992,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2190,7 +2196,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2390,7 +2396,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2588,7 +2594,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2794,7 +2800,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3110,7 +3116,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3284,52 +3290,52 @@
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P38" s="5"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5" t="s">
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="V38" s="5"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -3686,7 +3692,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -3998,7 +4004,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4282,22 +4288,22 @@
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8" t="s">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="L57" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M57" s="5"/>
@@ -4315,27 +4321,27 @@
       <c r="A58" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M58" s="5"/>
@@ -4353,33 +4359,33 @@
       <c r="A59" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M59" s="5"/>
@@ -4397,31 +4403,31 @@
       <c r="A60" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M60" s="5"/>
@@ -4439,27 +4445,27 @@
       <c r="A61" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9" t="s">
+      <c r="K61" s="9"/>
+      <c r="L61" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M61" s="5"/>
@@ -4477,29 +4483,29 @@
       <c r="A62" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M62" s="5"/>
@@ -4517,33 +4523,33 @@
       <c r="A63" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="L63" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M63" s="5"/>
@@ -4561,33 +4567,33 @@
       <c r="A64" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8" t="s">
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9" t="s">
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M64" s="5"/>
@@ -4615,25 +4621,25 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11" t="s">
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="V65" s="11" t="s">
+      <c r="V65" s="13" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4651,29 +4657,29 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11" t="s">
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11" t="s">
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="V66" s="11"/>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -4689,33 +4695,33 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q67" s="11" t="s">
+      <c r="Q67" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11" t="s">
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="U67" s="11" t="s">
+      <c r="U67" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="V67" s="11" t="s">
+      <c r="V67" s="13" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4733,33 +4739,33 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q68" s="11" t="s">
+      <c r="Q68" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="R68" s="11" t="s">
+      <c r="R68" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11" t="s">
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="V68" s="11"/>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -4775,29 +4781,29 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11" t="s">
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11" t="s">
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="V69" s="11"/>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -4813,31 +4819,31 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11" t="s">
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="V70" s="11"/>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -4853,33 +4859,33 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="Q71" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11" t="s">
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="U71" s="11" t="s">
+      <c r="U71" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="V71" s="11" t="s">
+      <c r="V71" s="13" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4897,35 +4903,35 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O72" s="11" t="s">
+      <c r="O72" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11" t="s">
+      <c r="S72" s="13"/>
+      <c r="T72" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="U72" s="11" t="s">
+      <c r="U72" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="V72" s="11"/>
+      <c r="V72" s="13"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="2" t="s">
@@ -4948,7 +4954,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5134,48 +5140,48 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="2"/>
       <c r="L77" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5" t="s">
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P77" s="5"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="V77" s="5"/>
+      <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">
@@ -5230,48 +5236,48 @@
       <c r="V78" s="5"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5" t="s">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="2"/>
       <c r="F79" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K79" s="5"/>
+      <c r="K79" s="2"/>
       <c r="L79" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M79" s="5" t="s">
+      <c r="M79" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5" t="s">
+      <c r="N79" s="2"/>
+      <c r="O79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P79" s="5"/>
+      <c r="P79" s="2"/>
       <c r="Q79" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="V79" s="5"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
